--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-encounter.xlsx
@@ -261,7 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-CORE】
+【JP-Core仕様】
 外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
@@ -530,11 +530,11 @@
 </t>
   </si>
   <si>
-    <t>List of past encounter statuses / 過去のEncouterのステータス一覧</t>
+    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
   </si>
   <si>
     <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encouterリソースがステータス履歴を含むことを可能にする。</t>
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
   </si>
   <si>
     <t>The current status is always found in the current version of the resource, not the status history.
@@ -622,11 +622,11 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter / 患者とのEncouterの分類</t>
+    <t>Classification of patient encounter / 患者とのEncounterの分類</t>
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.
-外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encouterの分類を表す概念。</t>
+外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encounterの分類を表す概念。</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
@@ -654,11 +654,11 @@
     <t>Encounter.classHistory</t>
   </si>
   <si>
-    <t>List of past encounter classes / 過去のEncouter classのリスト</t>
+    <t>List of past encounter classes / 過去のEncounter classのリスト</t>
   </si>
   <si>
     <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.
-クラスの履歴は、リソースの履歴を経由することなく、Encouterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncouterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncouterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
+クラスの履歴は、リソースの履歴を経由することなく、Encounterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncounterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncounterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
   </si>
   <si>
     <t>Encounter.classHistory.id</t>
@@ -701,15 +701,15 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter / Encouterの具体的なタイプ</t>
+    <t>Specific type of encounter / Encounterの具体的なタイプ</t>
   </si>
   <si>
     <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).
-具体的なEncouterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
+具体的なEncounterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is ..*.
-Encouterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
+Encounterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
   </si>
   <si>
     <t>example</t>
@@ -826,7 +826,7 @@
 特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するエンカウンターをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のエンカウンターを追加するのではなく、エントリ時にグループ化されるため、関連付けはエンカウンターに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
  The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.
 Encounterは、入院患者の滞在の記録だけではない。外来患者、地域の診療所、高齢者施設などのコンテクストも含まれる。
-このEncouterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
+このEncounterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ENC, moodCode=EVN]</t>
@@ -1245,7 +1245,7 @@
 患者が入院する前に来院した場所/組織</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
   </si>
   <si>
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".
-仮想Encouterは、"client's home "のような "kind "型の場所を参照し、encounter.class = "virtual "を指定することで、Encounterに記録することができる。</t>
+仮想Encounterは、"client's home "のような "kind "型の場所を参照し、encounter.class = "virtual "を指定することで、Encounterに記録することができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -1485,7 +1485,7 @@
     <t>Encounter.location.physicalType</t>
   </si>
   <si>
-    <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.) / 場所の物理的なタイプ（通常は場所の階層のレベル - ベッド・病室・病棟など）</t>
+    <t>The physical type of the location (usually the level in the location hierarchy - bed room ward etc.) / 場所の物理的なタイプ（通常は場所の階層のレベル - ベッド・病室・病棟など）</t>
   </si>
   <si>
     <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.
@@ -1493,8 +1493,8 @@
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
-There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.
-この情報は、メッセージングやクエリでのEncouterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
+There may be many levels in the hierarchy, and this may only pic specific levels that are required for a specific usage scenario.
+この情報は、メッセージングやクエリでのEncounterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
 階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
@@ -1527,11 +1527,11 @@
 </t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter / このEncouterに責任を持つ組織（施設）</t>
-  </si>
-  <si>
-    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
-このEncouterのサービスに主に責任を持つ組織。これは、患者記録上の組織と同じであってもよいが、例えば、サービスを実行しているアクターが外部組織のものである場合（外部コンサルテーションのために別個に請求される場合がある）など、異なる可能性がある。 大腸内視鏡検査のためのEncouterの省略されたセットを示すバンドル例を参照のこと。</t>
+    <t>The organization (facility) responsible for this encounter / このEncounterに責任を持つ組織（施設）</t>
+  </si>
+  <si>
+    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed separately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
+このEncounterのサービスに主に責任を持つ組織。これは、患者記録上の組織と同じであってもよいが、例えば、サービスを実行しているアクターが外部組織のものである場合（外部コンサルテーションのために別個に請求される場合がある）など、異なる可能性がある。 大腸内視鏡検査のためのEncounterの省略されたセットを示すバンドル例を参照のこと。</t>
   </si>
   <si>
     <t>.particiaption[typeCode=PFM].role</t>
@@ -1547,11 +1547,11 @@
 </t>
   </si>
   <si>
-    <t>Another Encounter this encounter is part of / このEncouterが属するもう一つのEncouter</t>
+    <t>Another Encounter this encounter is part of / このEncounterが属するもう一つのEncounter</t>
   </si>
   <si>
     <t>Another Encounter of which this encounter is a part of (administratively or in time).
-このEncouterが（管理的に、あるいは時間的に）一部となっているもう一つのEncouter。</t>
+このEncounterが（管理的に、あるいは時間的に）一部となっているもう一つのEncounter。</t>
   </si>
   <si>
     <t>This is also used for associating a child's encounter back to the mother's encounter.